--- a/trunk/rill-analysis/rill-analysis-report-core/src/test/resources/nu/com/rill/analysis/report/excel/luopan_pivottable2.xlsx
+++ b/trunk/rill-analysis/rill-analysis-report-core/src/test/resources/nu/com/rill/analysis/report/excel/luopan_pivottable2.xlsx
@@ -16,7 +16,7 @@
   </definedNames>
   <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId4"/>
+    <pivotCache cacheId="5" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -281,21 +281,30 @@
     <t>平均值项:同比项</t>
   </si>
   <si>
-    <t>新客户数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>经理B</t>
-  </si>
-  <si>
-    <t>经理B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新客户数项</t>
+  </si>
+  <si>
+    <t>新客户数项H</t>
+  </si>
+  <si>
+    <t>新客户数项T</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>经理68</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -380,7 +389,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -416,15 +425,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color theme="0"/>
       </right>
@@ -434,26 +434,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -478,17 +468,35 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -516,84 +524,144 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="41142.636843518521" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="2">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="41144.705652662036" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="4" refreshOnLoad="true">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A5:F7" sheet="_input"/>
+    <worksheetSource ref="A5:H9" sheet="_input"/>
   </cacheSource>
-  <cacheFields count="6">
+  <cacheFields count="8">
     <cacheField name="岗位1" numFmtId="0">
       <sharedItems count="1">
         <s v="高级经理"/>
       </sharedItems>
     </cacheField>
     <cacheField name="岗位2" numFmtId="0">
-      <sharedItems count="2">
+      <sharedItems count="3">
         <s v="经理A"/>
         <s v="经理B"/>
+        <s v="经理68"/>
       </sharedItems>
     </cacheField>
     <cacheField name="点击消费项" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="345" maxValue="346"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="345" maxValue="345" count="4">
+        <n v="345.0"/>
+        <n v="234.0"/>
+        <n v="123.0"/>
+        <n v="60.0"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="环比项" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="13" maxValue="14"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="13" maxValue="13" count="3">
+        <n v="13.0"/>
+        <n v="14.0"/>
+        <n v="69.0"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="同比项" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="9" maxValue="10"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="9" maxValue="9" count="2">
+        <n v="9.0"/>
+        <n v="55.0"/>
+      </sharedItems>
     </cacheField>
-    <cacheField name="新客户数" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="125" maxValue="126"/>
+    <cacheField name="新客户数项" numFmtId="0">
+      <sharedItems containsString="false" containsNumber="true" containsSemiMixedTypes="false" minValue="87.0" maxValue="102.0" containsInteger="true" count="4">
+        <n v="101.0"/>
+        <n v="102.0"/>
+        <n v="99.0"/>
+        <n v="87.0"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="新客户数项H" numFmtId="0">
+      <sharedItems containsString="false" containsNumber="true" containsSemiMixedTypes="false" minValue="11.0" maxValue="53.0" containsInteger="true" count="4">
+        <n v="11.0"/>
+        <n v="12.0"/>
+        <n v="13.0"/>
+        <n v="53.0"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="新客户数项T" numFmtId="0">
+      <sharedItems containsString="false" containsNumber="true" containsSemiMixedTypes="false" minValue="12.0" maxValue="50.0" containsInteger="true" count="3">
+        <n v="12.0"/>
+        <n v="21.0"/>
+        <n v="50.0"/>
+      </sharedItems>
     </cacheField>
   </cacheFields>
 </pivotCacheDefinition>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="2">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="4">
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="345"/>
-    <n v="13"/>
-    <n v="9"/>
-    <n v="125"/>
+    <n v="345.0"/>
+    <n v="13.0"/>
+    <n v="9.0"/>
+    <n v="101.0"/>
+    <n v="11.0"/>
+    <n v="12.0"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
-    <n v="346"/>
-    <n v="14"/>
-    <n v="10"/>
-    <n v="126"/>
+    <n v="234.0"/>
+    <n v="14.0"/>
+    <n v="9.0"/>
+    <n v="102.0"/>
+    <n v="12.0"/>
+    <n v="21.0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="123.0"/>
+    <n v="13.0"/>
+    <n v="9.0"/>
+    <n v="99.0"/>
+    <n v="13.0"/>
+    <n v="21.0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="60.0"/>
+    <n v="69.0"/>
+    <n v="55.0"/>
+    <n v="87.0"/>
+    <n v="53.0"/>
+    <n v="50.0"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pivot1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A4:D7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pivot1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="1" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="1" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A4:D6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
       <items count="1">
         <item x="0"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="2">
+      <items count="3">
         <item x="0"/>
         <item x="1"/>
+        <item x="2"/>
       </items>
     </pivotField>
     <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="true" showAll="false" defaultSubtotal="false"/>
+    <pivotField dataField="true" showAll="false" defaultSubtotal="false"/>
+    <pivotField dataField="true" showAll="false" defaultSubtotal="false"/>
   </pivotFields>
   <rowFields count="2">
     <field x="0"/>
     <field x="1"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="4">
     <i>
       <x/>
     </i>
@@ -602,6 +670,9 @@
     </i>
     <i r="1">
       <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
     </i>
   </rowItems>
   <colFields count="1">
@@ -618,10 +689,13 @@
       <x v="2"/>
     </i>
   </colItems>
-  <dataFields count="3">
-    <dataField name="求和项:点击消费项" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="平均值项:环比项" fld="3" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="平均值项:同比项" fld="4" subtotal="average" baseField="0" baseItem="0"/>
+  <dataFields count="6">
+    <dataField name="点击消费项" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="环比项" fld="3" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="同比项" fld="4" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="新客户数项" fld="5" subtotal="sum" baseField="0" baseItem="0"/>
+    <dataField name="新客户数项H" fld="6" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="新客户数项T" fld="7" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
     <format dxfId="2">
@@ -924,27 +998,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:D7"/>
+  <dimension ref="A2:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="21.75" customWidth="1"/>
-    <col min="3" max="3" width="19.625" customWidth="1"/>
-    <col min="4" max="4" width="17.625" customWidth="1"/>
-    <col min="5" max="5" width="5.75" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.75" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="5.75" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="24" customHeight="1">
-      <c r="A2" s="11" t="str">
+      <c r="A2" s="9" t="str">
         <f>_input!$B2&amp;" "&amp;_input!$B3&amp;"核心指标报表"</f>
         <v>搜索+推广 日数据核心指标报表</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
@@ -977,20 +1053,6 @@
       </c>
       <c r="D6" s="4">
         <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="4">
-        <v>346</v>
-      </c>
-      <c r="C7" s="4">
-        <v>14</v>
-      </c>
-      <c r="D7" s="4">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1014,14 +1076,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.125" customWidth="1"/>
-    <col min="3" max="3" width="1.25" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.875" customWidth="1"/>
-    <col min="6" max="6" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.5" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="51.125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="1.25" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="8.875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="21.5" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="32.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1113,7 +1175,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
@@ -1126,24 +1188,22 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.75" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" customHeight="1">
+    <row r="1" spans="1:5" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1">
+    <row r="2" spans="1:5" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1151,7 +1211,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1">
+    <row r="3" spans="1:5" ht="18" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -1159,7 +1219,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.25" thickBot="1">
+    <row r="5" spans="1:5" ht="14.25" thickBot="1">
       <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
@@ -1175,48 +1235,118 @@
       <c r="E5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s" s="7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.25" thickTop="1">
+      <c r="A6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="8">
+        <v>345</v>
+      </c>
+      <c r="D6" s="8">
+        <v>13</v>
+      </c>
+      <c r="E6" s="8">
+        <v>9</v>
+      </c>
+      <c r="F6" t="n" s="8">
+        <v>101.0</v>
+      </c>
+      <c r="G6" t="n" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="H6" t="n" s="8">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.25" thickTop="1">
-      <c r="A6" s="9" t="s">
+      <c r="C7" s="8">
+        <v>234</v>
+      </c>
+      <c r="D7" s="8">
+        <v>14</v>
+      </c>
+      <c r="E7" s="8">
+        <v>9</v>
+      </c>
+      <c r="F7" s="8" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="G7" s="8" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="H7" s="8" t="n">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="9">
-        <v>345</v>
-      </c>
-      <c r="D6" s="9">
+      <c r="C8" s="8">
+        <v>123</v>
+      </c>
+      <c r="D8" s="8">
         <v>13</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E8" s="8">
         <v>9</v>
       </c>
-      <c r="F6" s="10">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="9">
-        <v>346</v>
-      </c>
-      <c r="D7" s="9">
-        <v>14</v>
-      </c>
-      <c r="E7" s="9">
-        <v>10</v>
-      </c>
-      <c r="F7" s="10">
-        <v>126</v>
+      <c r="F8" s="8" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="G8" s="8" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="H8" s="8" t="n">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="12" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="D9" s="13" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="E9" s="14" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="F9" s="15" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="G9" s="16" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="H9" s="17" t="n">
+        <v>50.0</v>
       </c>
     </row>
   </sheetData>
